--- a/data.xlsx
+++ b/data.xlsx
@@ -2,28 +2,37 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -42,15 +51,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,28 +449,183 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Colleges</t>
-        </is>
+      <c r="A1" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Majors</t>
+          <t>Albany Technical College</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Courses</t>
+          <t xml:space="preserve">
+3D Printing and Rapid Prototyping Certificate
+</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>CAD Fundamentals</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3D Printing and Rapid Prototyping Certificate
+</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Multiview/Basic Dimensioning</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3D Printing and Rapid Prototyping Certificate
+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Introduction to 3D Printing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3D Printing and Rapid Prototyping Certificate
+</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rapid Prototyping</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3D Printing and Rapid Prototyping Certificate
+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Advanced Rapid Prototyping</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3D Printing and Rapid Prototyping Certificate
+</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3D Mechanical Modeling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3D Printing and Rapid Prototyping Certificate
+</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Architectural 3D Modeling</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -449,14 +449,1995 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3D Printing and Rapid Prototyping Certificate
+</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>CAD Fundamentals</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3D Printing and Rapid Prototyping Certificate
+</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Multiview/Basic Dimensioning</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3D Printing and Rapid Prototyping Certificate
+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Introduction to 3D Printing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3D Printing and Rapid Prototyping Certificate
+</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rapid Prototyping</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3D Printing and Rapid Prototyping Certificate
+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Advanced Rapid Prototyping</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3D Printing and Rapid Prototyping Certificate
+</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3D Mechanical Modeling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3D Printing and Rapid Prototyping Certificate
+</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Architectural 3D Modeling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Composition and Rhetoric</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>College Algebra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mathematical Modeling</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Financial Accounting I</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Financial Accounting II</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Managerial Accounting</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Computerized Accounting</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Individual Tax Accounting</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Payroll Accounting</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Document Production</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Introduction to Computer Literacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Business Tax Accounting</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Legal Environment of Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Personal Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Spreadsheet Applications</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Spreadsheet Concepts and Applications</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Office Procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Introduction to Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Word Processing Applications</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Database Applications</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Employment Rules &amp; Regulations</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Introduction to Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Business Ethics</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Principles of Marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Business Regulations and Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Professional Selling</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Customer Contact Skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Degree
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Principles of Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fundamentals of English I</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Interpersonal Relations and Professional Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Basic Psychology</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Business Math</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Foundations of Mathematics</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Financial Accounting I</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Financial Accounting II</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Computerized Accounting</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Individual Tax Accounting</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Payroll Accounting</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Document Production</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Introduction to Computer Literacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Spreadsheet Applications</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Spreadsheet Concepts and Applications</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Managerial Accounting</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Legal Environment of Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Business Tax Accounting</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Personal Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Office Procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Introduction to Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Word Processing Applications</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Database Applications</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Employment Rules &amp; Regulations</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Introduction to Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Business Ethics</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Principles of Marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Business Regulations and Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Professional Selling</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Customer Contact Skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Accounting Diploma
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Principles of Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Composition and Rhetoric</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Macroeconomics</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Introduction to Sociology</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>College Algebra</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Mathematical Modeling</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Introductory Psychology</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Introduction to Computer Literacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Addictions, Theories and Treatments</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Group Theory Counseling</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Substance Abuse Addiction Overview</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Multicultural Issues</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Biopsychosocial/ Case Management with Families</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Current Trends in Addiction and Mental Health Substance Abuse Case Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Theories of Counseling</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Prevention and Educating the Family &amp; Community</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Professional Counseling, Identity and Ethics</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Practicum</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Substance Abuse Counseling</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Crisis Intervention</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Pharmacology</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Diet and Nutrition for Allied Health Sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Pharmacology in the Medical Office</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Albany Technical College</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Addiction &amp; Substance Abuse Counseling Degree
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Pharmacotherapy</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C3936"/>
+  <dimension ref="A2:C3961"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
@@ -67327,6 +67327,431 @@
         </is>
       </c>
     </row>
+    <row r="3937">
+      <c r="A3937" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3937" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HIS 101 United States History to 1865 </t>
+        </is>
+      </c>
+      <c r="C3937" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HIS 101 United States History to 1865 </t>
+        </is>
+      </c>
+    </row>
+    <row r="3938">
+      <c r="A3938" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3938" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HIS 102 United States History from  1865 </t>
+        </is>
+      </c>
+      <c r="C3938" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HIS 102 United States History from  1865 </t>
+        </is>
+      </c>
+    </row>
+    <row r="3939">
+      <c r="A3939" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3939" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENG 101 English Composition </t>
+        </is>
+      </c>
+      <c r="C3939" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENG 101 English Composition </t>
+        </is>
+      </c>
+    </row>
+    <row r="3940">
+      <c r="A3940" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3940" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENG 102 Introduction to Literature </t>
+        </is>
+      </c>
+      <c r="C3940" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENG 102 Introduction to Literature </t>
+        </is>
+      </c>
+    </row>
+    <row r="3941">
+      <c r="A3941" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3941" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGT 101 Applied Business Mathematics </t>
+        </is>
+      </c>
+      <c r="C3941" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGT 101 Applied Business Mathematics </t>
+        </is>
+      </c>
+    </row>
+    <row r="3942">
+      <c r="A3942" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3942" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSY 102 General Psychology </t>
+        </is>
+      </c>
+      <c r="C3942" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSY 102 General Psychology </t>
+        </is>
+      </c>
+    </row>
+    <row r="3943">
+      <c r="A3943" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3943" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCI 202 Principles of Anatomy I </t>
+        </is>
+      </c>
+      <c r="C3943" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCI 202 Principles of Anatomy I </t>
+        </is>
+      </c>
+    </row>
+    <row r="3944">
+      <c r="A3944" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3944" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCI 222 Principles  of Microbiology II </t>
+        </is>
+      </c>
+      <c r="C3944" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCI 222 Principles  of Microbiology II </t>
+        </is>
+      </c>
+    </row>
+    <row r="3945">
+      <c r="A3945" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3945" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCI 331 Principles  of Pathology I </t>
+        </is>
+      </c>
+      <c r="C3945" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCI 331 Principles  of Pathology I </t>
+        </is>
+      </c>
+    </row>
+    <row r="3946">
+      <c r="A3946" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3946" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCI 332 Principles  of Pathology II </t>
+        </is>
+      </c>
+      <c r="C3946" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCI 332 Principles  of Pathology II </t>
+        </is>
+      </c>
+    </row>
+    <row r="3947">
+      <c r="A3947" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3947" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCI 242 Principles  of Restorative Art I </t>
+        </is>
+      </c>
+      <c r="C3947" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCI 242 Principles  of Restorative Art I </t>
+        </is>
+      </c>
+    </row>
+    <row r="3948">
+      <c r="A3948" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3948" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCI 341 Principles  of Restorative Art II </t>
+        </is>
+      </c>
+      <c r="C3948" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCI 341 Principles  of Restorative Art II </t>
+        </is>
+      </c>
+    </row>
+    <row r="3949">
+      <c r="A3949" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3949" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCI 342 Principles of Restorative Art III </t>
+        </is>
+      </c>
+      <c r="C3949" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCI 342 Principles of Restorative Art III </t>
+        </is>
+      </c>
+    </row>
+    <row r="3950">
+      <c r="A3950" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3950" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGT 211 Computers in Funeral Service </t>
+        </is>
+      </c>
+      <c r="C3950" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGT 211 Computers in Funeral Service </t>
+        </is>
+      </c>
+    </row>
+    <row r="3951">
+      <c r="A3951" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3951" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGT 212 Funeral Service Management I </t>
+        </is>
+      </c>
+      <c r="C3951" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGT 212 Funeral Service Management I </t>
+        </is>
+      </c>
+    </row>
+    <row r="3952">
+      <c r="A3952" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3952" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGT 222 Small Business Management </t>
+        </is>
+      </c>
+      <c r="C3952" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGT 222 Small Business Management </t>
+        </is>
+      </c>
+    </row>
+    <row r="3953">
+      <c r="A3953" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3953" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENG 201 Communication Skills for Funeral Service </t>
+        </is>
+      </c>
+      <c r="C3953" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENG 201 Communication Skills for Funeral Service </t>
+        </is>
+      </c>
+    </row>
+    <row r="3954">
+      <c r="A3954" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3954" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOC 301 Sociology of Funeral Service </t>
+        </is>
+      </c>
+      <c r="C3954" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOC 301 Sociology of Funeral Service </t>
+        </is>
+      </c>
+    </row>
+    <row r="3955">
+      <c r="A3955" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3955" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSY 201 Psychology of Funeral Service </t>
+        </is>
+      </c>
+      <c r="C3955" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSY 201 Psychology of Funeral Service </t>
+        </is>
+      </c>
+    </row>
+    <row r="3956">
+      <c r="A3956" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3956" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSY 202 Counseling </t>
+        </is>
+      </c>
+      <c r="C3956" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSY 202 Counseling </t>
+        </is>
+      </c>
+    </row>
+    <row r="3957">
+      <c r="A3957" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3957" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HIS 201 History of Funeral Service </t>
+        </is>
+      </c>
+      <c r="C3957" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HIS 201 History of Funeral Service </t>
+        </is>
+      </c>
+    </row>
+    <row r="3958">
+      <c r="A3958" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3958" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGT 322 Business Law </t>
+        </is>
+      </c>
+      <c r="C3958" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGT 322 Business Law </t>
+        </is>
+      </c>
+    </row>
+    <row r="3959">
+      <c r="A3959" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3959" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGT 221 Mortuary Law/Ethi cs </t>
+        </is>
+      </c>
+      <c r="C3959" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGT 221 Mortuary Law/Ethi cs </t>
+        </is>
+      </c>
+    </row>
+    <row r="3960">
+      <c r="A3960" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3960" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGT 302 Comprehensive Survey and Review </t>
+        </is>
+      </c>
+      <c r="C3960" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGT 302 Comprehensive Survey and Review </t>
+        </is>
+      </c>
+    </row>
+    <row r="3961">
+      <c r="A3961" t="inlineStr">
+        <is>
+          <t>Andrew College</t>
+        </is>
+      </c>
+      <c r="B3961" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FSM 000 Funeral Directing Practicum </t>
+        </is>
+      </c>
+      <c r="C3961" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FSM 000 Funeral Directing Practicum </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohithjothikannan/Desktop/python-scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EC62F17-54E7-6E46-A08D-CA9DECCEE13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{076B4116-3721-6643-BCA0-C7333EC6B047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16780" xr2:uid="{F367AFF4-F447-2341-B312-485AAABD79E1}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16780" xr2:uid="{767D48B1-9261-1F42-B5AF-E681E22C05B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -381,11 +381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B174D88C-7E2F-9749-A597-2B5BACB6134F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FCCCE9-7890-E94E-BE10-1BDD79F21E9B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
